--- a/Technology/Software/Cadence Design Systems.xlsx
+++ b/Technology/Software/Cadence Design Systems.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EEE9D2-71A5-034B-90C7-8DC7C2DA1C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F473AC-EB93-E047-8705-21C8CD4FDC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -565,18 +568,25 @@
   </si>
   <si>
     <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -745,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -851,62 +861,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -923,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -966,84 +923,27 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,22 +954,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1066,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CDNS</a:t>
+              <a:t>Cadence Design Systems</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1161,9 +1105,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.9775206611570254E-2"/>
-          <c:y val="0.1114327069956331"/>
+          <c:y val="0.1747180229908103"/>
           <c:w val="0.87129917355371889"/>
-          <c:h val="0.73923642643270171"/>
+          <c:h val="0.65361507144726838"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2394,13 +2338,13 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2426,6 +2370,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3147,10 +3145,10 @@
   <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM100" sqref="AM100"/>
+      <selection pane="bottomRight" activeCell="AR28" sqref="AR28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3272,19 +3270,19 @@
       <c r="AK1" s="8">
         <v>2022</v>
       </c>
-      <c r="AL1" s="28">
+      <c r="AL1" s="24">
         <v>2023</v>
       </c>
-      <c r="AM1" s="28">
+      <c r="AM1" s="24">
         <v>2024</v>
       </c>
-      <c r="AN1" s="28">
+      <c r="AN1" s="24">
         <v>2025</v>
       </c>
-      <c r="AO1" s="28">
+      <c r="AO1" s="24">
         <v>2026</v>
       </c>
-      <c r="AP1" s="28">
+      <c r="AP1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -3524,19 +3522,19 @@
       <c r="AK3" s="1">
         <v>3561718000</v>
       </c>
-      <c r="AL3" s="29">
+      <c r="AL3" s="25">
         <v>4053000000</v>
       </c>
-      <c r="AM3" s="29">
+      <c r="AM3" s="25">
         <v>4505000000</v>
       </c>
-      <c r="AN3" s="29">
+      <c r="AN3" s="25">
         <v>5034000000</v>
       </c>
-      <c r="AO3" s="29">
+      <c r="AO3" s="25">
         <v>5517000000</v>
       </c>
-      <c r="AP3" s="29">
+      <c r="AP3" s="25">
         <v>6100000000</v>
       </c>
       <c r="AQ3" s="18" t="s">
@@ -5259,19 +5257,19 @@
       <c r="AK16" s="1">
         <v>2488032000</v>
       </c>
-      <c r="AQ16" s="30">
+      <c r="AQ16" s="26">
         <f>(AK35+AJ35+AI35+AH35+AG35)/5</f>
         <v>-1.1300746183513167E-2</v>
       </c>
-      <c r="AR16" s="65">
+      <c r="AR16" s="38">
         <f>AS101/AK3</f>
         <v>17.379047976285602</v>
       </c>
-      <c r="AS16" s="65">
+      <c r="AS16" s="38">
         <f>AS101/AK28</f>
         <v>72.912565139136248</v>
       </c>
-      <c r="AT16" s="66">
+      <c r="AT16" s="39">
         <f>AS101/AK107</f>
         <v>55.332466239198197</v>
       </c>
@@ -5626,34 +5624,34 @@
       <c r="AK19" s="10">
         <v>1203727000</v>
       </c>
-      <c r="AL19" s="60">
+      <c r="AL19" s="33">
         <v>1804000000</v>
       </c>
-      <c r="AM19" s="60">
+      <c r="AM19" s="33">
         <v>2040000000</v>
       </c>
-      <c r="AN19" s="60">
+      <c r="AN19" s="33">
         <v>2341000000</v>
       </c>
-      <c r="AO19" s="60">
+      <c r="AO19" s="33">
         <v>2621000000</v>
       </c>
-      <c r="AP19" s="60">
+      <c r="AP19" s="33">
         <v>3050000000</v>
       </c>
-      <c r="AQ19" s="31">
+      <c r="AQ19" s="27">
         <f>AK40-AK56-AK61</f>
         <v>134247000</v>
       </c>
-      <c r="AR19" s="65">
+      <c r="AR19" s="38">
         <f>AS101/AL3</f>
         <v>15.27245694547249</v>
       </c>
-      <c r="AS19" s="65">
+      <c r="AS19" s="38">
         <f>AS101/AL28</f>
         <v>45.214951059167277</v>
       </c>
-      <c r="AT19" s="66">
+      <c r="AT19" s="39">
         <f>AS101/AL105</f>
         <v>70.39969519690969</v>
       </c>
@@ -5824,7 +5822,7 @@
         <v>0.16367798550171697</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5933,28 +5931,34 @@
       <c r="AJ21" s="2">
         <v>0.29949999999999999</v>
       </c>
-      <c r="AK21" s="59">
+      <c r="AK21" s="32">
         <v>0.33800000000000002</v>
       </c>
-      <c r="AL21" s="61">
+      <c r="AL21" s="34">
         <f>AL19/AL3</f>
         <v>0.44510239328892176</v>
       </c>
-      <c r="AM21" s="61">
+      <c r="AM21" s="34">
         <f t="shared" ref="AM21:AP21" si="9">AM19/AM3</f>
         <v>0.45283018867924529</v>
       </c>
-      <c r="AN21" s="61">
+      <c r="AN21" s="34">
         <f t="shared" si="9"/>
         <v>0.46503774334525227</v>
       </c>
-      <c r="AO21" s="61">
+      <c r="AO21" s="34">
         <f t="shared" si="9"/>
         <v>0.47507703462026463</v>
       </c>
-      <c r="AP21" s="61">
+      <c r="AP21" s="34">
         <f t="shared" si="9"/>
         <v>0.5</v>
+      </c>
+      <c r="AS21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT21" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -6069,6 +6073,14 @@
       <c r="AK22" s="22">
         <v>1073686000</v>
       </c>
+      <c r="AS22" s="44">
+        <f>AK98/AS101*-1</f>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="43">
+        <f>AK107/AS101</f>
+        <v>1.8072572360629532E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -6747,19 +6759,19 @@
       <c r="AK28" s="11">
         <v>848952000</v>
       </c>
-      <c r="AL28" s="62">
+      <c r="AL28" s="35">
         <v>1369000000</v>
       </c>
-      <c r="AM28" s="62">
+      <c r="AM28" s="35">
         <v>1556000000</v>
       </c>
-      <c r="AN28" s="62">
+      <c r="AN28" s="35">
         <v>1800000000</v>
       </c>
-      <c r="AO28" s="62">
+      <c r="AO28" s="35">
         <v>1852000000</v>
       </c>
-      <c r="AP28" s="62">
+      <c r="AP28" s="35">
         <v>2141000000</v>
       </c>
     </row>
@@ -7041,23 +7053,23 @@
       <c r="AK30" s="2">
         <v>0.2384</v>
       </c>
-      <c r="AL30" s="63">
+      <c r="AL30" s="36">
         <f>AL28/AL3</f>
         <v>0.33777448803355536</v>
       </c>
-      <c r="AM30" s="63">
+      <c r="AM30" s="36">
         <f t="shared" ref="AM30:AP30" si="16">AM28/AM3</f>
         <v>0.34539400665926751</v>
       </c>
-      <c r="AN30" s="63">
+      <c r="AN30" s="36">
         <f t="shared" si="16"/>
         <v>0.35756853396901073</v>
       </c>
-      <c r="AO30" s="63">
+      <c r="AO30" s="36">
         <f t="shared" si="16"/>
         <v>0.33568968642378105</v>
       </c>
-      <c r="AP30" s="63">
+      <c r="AP30" s="36">
         <f t="shared" si="16"/>
         <v>0.35098360655737704</v>
       </c>
@@ -7174,19 +7186,19 @@
       <c r="AK31" s="12">
         <v>3.13</v>
       </c>
-      <c r="AL31" s="64">
+      <c r="AL31" s="37">
         <v>5.0199999999999996</v>
       </c>
-      <c r="AM31" s="64">
+      <c r="AM31" s="37">
         <v>5.71</v>
       </c>
-      <c r="AN31" s="64">
+      <c r="AN31" s="37">
         <v>6.6</v>
       </c>
-      <c r="AO31" s="64">
+      <c r="AO31" s="37">
         <v>6.79</v>
       </c>
-      <c r="AP31" s="64">
+      <c r="AP31" s="37">
         <v>7.85</v>
       </c>
     </row>
@@ -13134,10 +13146,10 @@
       <c r="AK83" s="1">
         <v>-23073000</v>
       </c>
-      <c r="AR83" s="72" t="s">
+      <c r="AR83" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="AS83" s="73"/>
+      <c r="AS83" s="69"/>
     </row>
     <row r="84" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13251,10 +13263,10 @@
       <c r="AK84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR84" s="74" t="s">
+      <c r="AR84" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AS84" s="75"/>
+      <c r="AS84" s="70"/>
     </row>
     <row r="85" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13368,10 +13380,10 @@
       <c r="AK85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR85" s="24" t="s">
+      <c r="AR85" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="AS85" s="25">
+      <c r="AS85" s="46">
         <f>AK17</f>
         <v>22934000</v>
       </c>
@@ -13488,10 +13500,10 @@
       <c r="AK86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR86" s="24" t="s">
+      <c r="AR86" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="AS86" s="25">
+      <c r="AS86" s="46">
         <f>AK56</f>
         <v>100000000</v>
       </c>
@@ -13608,10 +13620,10 @@
       <c r="AK87" s="10">
         <v>1241894000</v>
       </c>
-      <c r="AR87" s="24" t="s">
+      <c r="AR87" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="AS87" s="25">
+      <c r="AS87" s="46">
         <f>AK61</f>
         <v>648078000</v>
       </c>
@@ -13728,10 +13740,10 @@
       <c r="AK88" s="1">
         <v>-123215000</v>
       </c>
-      <c r="AR88" s="32" t="s">
+      <c r="AR88" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="AS88" s="33">
+      <c r="AS88" s="48">
         <f>AS85/(AS86+AS87)</f>
         <v>3.065723093046447E-2</v>
       </c>
@@ -13884,10 +13896,10 @@
         <f t="shared" si="19"/>
         <v>3.4594260410285148E-2</v>
       </c>
-      <c r="AR89" s="24" t="s">
+      <c r="AR89" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="AS89" s="25">
+      <c r="AS89" s="46">
         <f>AK27</f>
         <v>196411000</v>
       </c>
@@ -14004,10 +14016,10 @@
       <c r="AK90" s="1">
         <v>-613785000</v>
       </c>
-      <c r="AR90" s="24" t="s">
+      <c r="AR90" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AS90" s="25">
+      <c r="AS90" s="46">
         <f>AK25</f>
         <v>1045363000</v>
       </c>
@@ -14124,10 +14136,10 @@
       <c r="AK91" s="1">
         <v>-1000000</v>
       </c>
-      <c r="AR91" s="32" t="s">
+      <c r="AR91" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="AS91" s="33">
+      <c r="AS91" s="48">
         <f>AS89/AS90</f>
         <v>0.18788784374423048</v>
       </c>
@@ -14244,10 +14256,10 @@
       <c r="AK92" s="1">
         <v>366000</v>
       </c>
-      <c r="AR92" s="34" t="s">
+      <c r="AR92" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="AS92" s="35">
+      <c r="AS92" s="48">
         <f>AS88*(1-AS91)</f>
         <v>2.4897109915770571E-2</v>
       </c>
@@ -14364,10 +14376,10 @@
       <c r="AK93" s="1">
         <v>-1000000</v>
       </c>
-      <c r="AR93" s="74" t="s">
+      <c r="AR93" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="AS93" s="75"/>
+      <c r="AS93" s="70"/>
     </row>
     <row r="94" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14481,11 +14493,12 @@
       <c r="AK94" s="10">
         <v>-738634000</v>
       </c>
-      <c r="AR94" s="24" t="s">
+      <c r="AR94" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="AS94" s="36">
-        <v>4.095E-2</v>
+      <c r="AS94" s="66">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14600,10 +14613,10 @@
       <c r="AK95" s="1">
         <v>-425000</v>
       </c>
-      <c r="AR95" s="37" t="s">
+      <c r="AR95" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AS95" s="38" cm="1">
+      <c r="AS95" s="51" cm="1">
         <f t="array" ref="AS95">_FV(A1,"Beta")</f>
         <v>1.0430999999999999</v>
       </c>
@@ -14720,10 +14733,10 @@
       <c r="AK96" s="1">
         <v>105331000</v>
       </c>
-      <c r="AR96" s="24" t="s">
+      <c r="AR96" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="AS96" s="36">
+      <c r="AS96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14839,12 +14852,12 @@
       <c r="AK97" s="1">
         <v>-1050091000</v>
       </c>
-      <c r="AR97" s="34" t="s">
+      <c r="AR97" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="AS97" s="35">
+      <c r="AS97" s="48">
         <f>(AS94)+((AS95)*(AS96-AS94))</f>
-        <v>8.5855454999999997E-2</v>
+        <v>8.5934328000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -14956,13 +14969,13 @@
       <c r="AJ98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AK98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR98" s="74" t="s">
+      <c r="AK98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR98" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="AS98" s="75"/>
+      <c r="AS98" s="70"/>
     </row>
     <row r="99" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15076,10 +15089,10 @@
       <c r="AK99" s="1">
         <v>288136000</v>
       </c>
-      <c r="AR99" s="24" t="s">
+      <c r="AR99" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="AS99" s="25">
+      <c r="AS99" s="46">
         <f>AS86+AS87</f>
         <v>748078000</v>
       </c>
@@ -15196,10 +15209,10 @@
       <c r="AK100" s="10">
         <v>-657049000</v>
       </c>
-      <c r="AR100" s="32" t="s">
+      <c r="AR100" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="AS100" s="33">
+      <c r="AS100" s="48">
         <f>AS99/AS103</f>
         <v>1.1941096435274369E-2</v>
       </c>
@@ -15316,10 +15329,10 @@
       <c r="AK101" s="1">
         <v>-52826000</v>
       </c>
-      <c r="AR101" s="37" t="s">
+      <c r="AR101" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="AS101" s="39" cm="1">
+      <c r="AS101" s="30" cm="1">
         <f t="array" ref="AS101">_FV(A1,"Market cap",TRUE)</f>
         <v>61899268000</v>
       </c>
@@ -15436,10 +15449,10 @@
       <c r="AK102" s="10">
         <v>-206615000</v>
       </c>
-      <c r="AR102" s="32" t="s">
+      <c r="AR102" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="AS102" s="33">
+      <c r="AS102" s="48">
         <f>AS101/AS103</f>
         <v>0.98805890356472559</v>
       </c>
@@ -15556,10 +15569,10 @@
       <c r="AK103" s="1">
         <v>1088940000</v>
       </c>
-      <c r="AR103" s="34" t="s">
+      <c r="AR103" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="AS103" s="40">
+      <c r="AS103" s="52">
         <f>AS99+AS101</f>
         <v>62647346000</v>
       </c>
@@ -15676,10 +15689,10 @@
       <c r="AK104" s="11">
         <v>882325000</v>
       </c>
-      <c r="AR104" s="74" t="s">
+      <c r="AR104" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="AS104" s="75"/>
+      <c r="AS104" s="70"/>
     </row>
     <row r="105" spans="1:45" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15829,35 +15842,35 @@
         <f>(AK22*(1-$AS$91))+AK77+AK88-AK81</f>
         <v>789489452.60163212</v>
       </c>
-      <c r="AL105" s="41">
+      <c r="AL105" s="28">
         <f>AK105*(1+$AS$106)</f>
         <v>879254772.72119176</v>
       </c>
-      <c r="AM105" s="41">
+      <c r="AM105" s="28">
         <f t="shared" ref="AM105:AP105" si="22">AL105*(1+$AS$106)</f>
         <v>979226451.73460853</v>
       </c>
-      <c r="AN105" s="41">
+      <c r="AN105" s="28">
         <f t="shared" si="22"/>
         <v>1090564957.4231088</v>
       </c>
-      <c r="AO105" s="41">
+      <c r="AO105" s="28">
         <f t="shared" si="22"/>
         <v>1214562703.2975633</v>
       </c>
-      <c r="AP105" s="41">
+      <c r="AP105" s="28">
         <f t="shared" si="22"/>
         <v>1352659050.8896782</v>
       </c>
-      <c r="AQ105" s="42" t="s">
+      <c r="AQ105" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="AR105" s="26" t="s">
+      <c r="AR105" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AS105" s="27">
+      <c r="AS105" s="54">
         <f>(AS100*AS92)+(AS102*AS97)</f>
-        <v>8.5127545522814485E-2</v>
+        <v>8.5205476692715346E-2</v>
       </c>
     </row>
     <row r="106" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -16008,34 +16021,34 @@
         <f>(AK107/AJ107)-1</f>
         <v>0.38089936045643236</v>
       </c>
-      <c r="AL106" s="67">
+      <c r="AL106" s="40">
         <v>1557000000</v>
       </c>
-      <c r="AM106" s="67">
+      <c r="AM106" s="40">
         <v>1756000000</v>
       </c>
-      <c r="AN106" s="67">
+      <c r="AN106" s="40">
         <v>2033000000</v>
       </c>
-      <c r="AO106" s="67">
+      <c r="AO106" s="40">
         <v>2258000000</v>
       </c>
-      <c r="AP106" s="67">
+      <c r="AP106" s="40">
         <v>2644000000</v>
       </c>
-      <c r="AQ106" s="42" t="s">
+      <c r="AQ106" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="AR106" s="43" t="s">
+      <c r="AR106" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="AS106" s="44">
+      <c r="AS106" s="56">
         <f>(SUM(AL4:AP4)/5)</f>
         <v>0.11370046784507748</v>
       </c>
     </row>
     <row r="107" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="69" t="s">
+      <c r="A107" s="42" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1">
@@ -16146,139 +16159,139 @@
       <c r="AK107" s="1">
         <v>1118679000</v>
       </c>
-      <c r="AL107" s="42"/>
-      <c r="AM107" s="42"/>
-      <c r="AN107" s="42"/>
-      <c r="AO107" s="42"/>
-      <c r="AP107" s="68">
+      <c r="AL107" s="29"/>
+      <c r="AM107" s="29"/>
+      <c r="AN107" s="29"/>
+      <c r="AO107" s="29"/>
+      <c r="AP107" s="41">
         <f>AP106*(1+AS107)/(AS108-AS107)</f>
-        <v>45072520031.134377</v>
-      </c>
-      <c r="AQ107" s="46" t="s">
+        <v>45014177262.181076</v>
+      </c>
+      <c r="AQ107" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AR107" s="47" t="s">
+      <c r="AR107" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="AS107" s="48">
+      <c r="AS107" s="58">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL108" s="45">
-        <f>AL107+AL105</f>
-        <v>879254772.72119176</v>
-      </c>
-      <c r="AM108" s="45">
-        <f>AM107+AM105</f>
-        <v>979226451.73460853</v>
-      </c>
-      <c r="AN108" s="45">
-        <f>AN107+AN105</f>
-        <v>1090564957.4231088</v>
-      </c>
-      <c r="AO108" s="45">
-        <f>AO107+AO105</f>
-        <v>1214562703.2975633</v>
-      </c>
-      <c r="AP108" s="68">
+      <c r="AL108" s="41">
+        <f t="shared" ref="AL108:AO108" si="24">AL107+AL106</f>
+        <v>1557000000</v>
+      </c>
+      <c r="AM108" s="41">
+        <f t="shared" si="24"/>
+        <v>1756000000</v>
+      </c>
+      <c r="AN108" s="41">
+        <f t="shared" si="24"/>
+        <v>2033000000</v>
+      </c>
+      <c r="AO108" s="41">
+        <f t="shared" si="24"/>
+        <v>2258000000</v>
+      </c>
+      <c r="AP108" s="41">
         <f>AP107+AP106</f>
-        <v>47716520031.134377</v>
-      </c>
-      <c r="AQ108" s="46" t="s">
+        <v>47658177262.181076</v>
+      </c>
+      <c r="AQ108" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="AR108" s="49" t="s">
+      <c r="AR108" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="AS108" s="50">
+      <c r="AS108" s="56">
         <f>AS105</f>
-        <v>8.5127545522814485E-2</v>
+        <v>8.5205476692715346E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL109" s="70" t="s">
+      <c r="AL109" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="AM109" s="71"/>
+      <c r="AM109" s="67"/>
     </row>
     <row r="110" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL110" s="51" t="s">
+      <c r="AL110" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="AM110" s="39">
+      <c r="AM110" s="30">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
-        <v>35086395542.063713</v>
+        <v>37809517257.484138</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL111" s="51" t="s">
+      <c r="AL111" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="AM111" s="39">
+      <c r="AM111" s="30">
         <f>AK40</f>
         <v>882325000</v>
       </c>
     </row>
     <row r="112" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL112" s="51" t="s">
+      <c r="AL112" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="AM112" s="39">
+      <c r="AM112" s="30">
         <f>AS99</f>
         <v>748078000</v>
       </c>
     </row>
     <row r="113" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL113" s="51" t="s">
+      <c r="AL113" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AM113" s="39">
+      <c r="AM113" s="30">
         <f>AM110+AM111-AM112</f>
-        <v>35220642542.063713</v>
+        <v>37943764257.484138</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL114" s="51" t="s">
+      <c r="AL114" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="AM114" s="52">
+      <c r="AM114" s="60">
         <f>AK34*(1+(5*AQ16))</f>
         <v>259471852.45662931</v>
       </c>
     </row>
     <row r="115" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL115" s="53" t="s">
+      <c r="AL115" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="AM115" s="54">
+      <c r="AM115" s="62">
         <f>AM113/AM114</f>
-        <v>135.73974289928361</v>
+        <v>146.23460656036451</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL116" s="51" t="s">
+      <c r="AL116" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="AM116" s="55" cm="1">
+      <c r="AM116" s="63" cm="1">
         <f t="array" ref="AM116">_FV(A1,"Price")</f>
         <v>227</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL117" s="56" t="s">
+      <c r="AL117" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="AM117" s="57">
+      <c r="AM117" s="64">
         <f>AM115/AM116-1</f>
-        <v>-0.40202756432033648</v>
+        <v>-0.35579468475610343</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL118" s="56" t="s">
+      <c r="AL118" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="AM118" s="58" t="str">
+      <c r="AM118" s="65" t="str">
         <f>IF(AM115&gt;AM116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Cadence Design Systems.xlsx
+++ b/Technology/Software/Cadence Design Systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90635D9-7682-BD4D-9E13-1F0ED0866DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F53FF1-A03D-4442-922A-536FB07A1E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2842,7 +2842,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2983,11 +2983,11 @@
     <v>Powered by Refinitiv</v>
     <v>255.85</v>
     <v>138.76</v>
-    <v>1.0456000000000001</v>
-    <v>-1.5</v>
-    <v>-6.0840000000000009E-3</v>
-    <v>-0.19</v>
-    <v>-7.7530000000000003E-4</v>
+    <v>1.0442</v>
+    <v>-6.42</v>
+    <v>-2.6198000000000003E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Cadence Design Systems, Inc. is an electronic system designing company. The Company's Custom IC Design and Simulation offerings are used by its customers to create schematic and physical representations of circuits down to the transistor level for analog, mixed-signal, custom digital, memory and radio frequency (RF) designs. Its Digital IC Design and Signoff solutions are used to create logical representations of a digital circuit or an integrated circuit (IC) that can be verified for correctness prior to implementation. The Company’s Functional Verification products are used by its customers to verify that the circuitry or the software they have designed is consistent with the functional specification. Its IP offerings consist of pre-verified, customizable functional blocks. Its System Design and Analysis offerings are used by its customers to develop printed circuit boards (PCBs) and advanced IC packages and to analyze electromagnetic, electro-thermal and other multi-physics effects.</v>
     <v>10200</v>
@@ -2995,25 +2995,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2655 Seely Avenue Bldg 5, SAN JOSE, CA, 95134 US</v>
-    <v>250.24</v>
+    <v>245.13</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.996068657034</v>
+    <v>45219.999622128904</v>
     <v>0</v>
-    <v>243.93</v>
-    <v>66823941040</v>
+    <v>238.03</v>
+    <v>65073309760</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
-    <v>248.6</v>
-    <v>75.786299999999997</v>
-    <v>246.56</v>
+    <v>245.13</v>
+    <v>75.325199999999995</v>
     <v>245.06</v>
-    <v>244.87</v>
+    <v>238.64</v>
+    <v>238.64</v>
     <v>272684000</v>
     <v>CDNS</v>
     <v>CADENCE DESIGN SYSTEMS, INC. (XNAS:CDNS)</v>
-    <v>1252137</v>
-    <v>1159404</v>
+    <v>1361517</v>
+    <v>1161278</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3604,7 +3604,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AD92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI12" sqref="AI12"/>
+      <selection pane="bottomRight" activeCell="AI99" sqref="AI99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5515,15 +5515,15 @@
       </c>
       <c r="AN16" s="34">
         <f>AO102/AG3</f>
-        <v>18.761715846116957</v>
+        <v>18.270202683087206</v>
       </c>
       <c r="AO16" s="34">
         <f>AO102/AG28</f>
-        <v>78.713450277518632</v>
+        <v>76.65134160706377</v>
       </c>
       <c r="AP16" s="35">
         <f>AO102/AG107</f>
-        <v>59.734688002545859</v>
+        <v>58.169778604943865</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5861,15 +5861,15 @@
       </c>
       <c r="AN19" s="34">
         <f>AO102/AH3</f>
-        <v>16.414625654630314</v>
+        <v>15.984600776222058</v>
       </c>
       <c r="AO19" s="34">
         <f>AO102/AH28</f>
-        <v>48.178760663302093</v>
+        <v>46.916589589041095</v>
       </c>
       <c r="AP19" s="35">
         <f>AO102/AH107</f>
-        <v>42.080567405541565</v>
+        <v>40.978154760705287</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="AP22" s="37">
         <f>AH107/AO102</f>
-        <v>2.3763938122856935E-2</v>
+        <v>2.4403246213490278E-2</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13902,7 +13902,7 @@
       </c>
       <c r="AO95" s="72">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14010,7 +14010,7 @@
       </c>
       <c r="AO96" s="55" cm="1">
         <f t="array" ref="AO96">_FV(A1,"Beta")</f>
-        <v>1.0456000000000001</v>
+        <v>1.0442</v>
       </c>
     </row>
     <row r="97" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="AO98" s="53">
         <f>(AO95)+((AO96)*(AO97-AO95))</f>
-        <v>8.5595088000000014E-2</v>
+        <v>8.5508104000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -14546,7 +14546,7 @@
       </c>
       <c r="AO101" s="53">
         <f>AO100/AO104</f>
-        <v>1.1070825034207829E-2</v>
+        <v>1.1365272375108003E-2</v>
       </c>
     </row>
     <row r="102" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14654,7 +14654,7 @@
       </c>
       <c r="AO102" s="57" cm="1">
         <f t="array" ref="AO102">_FV(A1,"Market cap",TRUE)</f>
-        <v>66823941040</v>
+        <v>65073309760</v>
       </c>
     </row>
     <row r="103" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14762,7 +14762,7 @@
       </c>
       <c r="AO103" s="53">
         <f>AO102/AO104</f>
-        <v>0.98892917496579213</v>
+        <v>0.98863472762489202</v>
       </c>
     </row>
     <row r="104" spans="1:41" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="AO104" s="58">
         <f>AO100+AO102</f>
-        <v>67572019040</v>
+        <v>65821387760</v>
       </c>
     </row>
     <row r="105" spans="1:41" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15202,7 +15202,7 @@
       </c>
       <c r="AO106" s="60">
         <f>(AO101*AO93)+(AO103*AO98)</f>
-        <v>8.4923111304699331E-2</v>
+        <v>8.481924354330668E-2</v>
       </c>
     </row>
     <row r="107" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -15338,7 +15338,7 @@
       <c r="AK108" s="75"/>
       <c r="AL108" s="47">
         <f>AL107*(1+AO108)/(AO109-AO108)</f>
-        <v>46902604667.985397</v>
+        <v>46984044490.052376</v>
       </c>
       <c r="AM108" s="48" t="s">
         <v>145</v>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="AL109" s="47">
         <f>AL108+AL107</f>
-        <v>49644604667.985397</v>
+        <v>49726044490.052376</v>
       </c>
       <c r="AM109" s="48" t="s">
         <v>142</v>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="AO109" s="61">
         <f>AO106</f>
-        <v>8.4923111304699331E-2</v>
+        <v>8.481924354330668E-2</v>
       </c>
     </row>
     <row r="110" spans="1:41" ht="19" x14ac:dyDescent="0.2">
@@ -15394,7 +15394,7 @@
       </c>
       <c r="AI111" s="65">
         <f>NPV(AO109,AH109,AI109,AJ109,AK109,AL109)</f>
-        <v>39446948031.635506</v>
+        <v>39518556917.162735</v>
       </c>
     </row>
     <row r="112" spans="1:41" ht="20" x14ac:dyDescent="0.2">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="AI114" s="65">
         <f>AI111+AI112-AI113</f>
-        <v>39581195031.635506</v>
+        <v>39652803917.162735</v>
       </c>
     </row>
     <row r="115" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="AI116" s="67">
         <f>AI114/AI115</f>
-        <v>152.54523624388699</v>
+        <v>152.82121564145652</v>
       </c>
     </row>
     <row r="117" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="AI117" s="68" cm="1">
         <f t="array" ref="AI117">_FV(A1,"Price")</f>
-        <v>245.06</v>
+        <v>238.64</v>
       </c>
     </row>
     <row r="118" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15457,7 +15457,7 @@
       </c>
       <c r="AI118" s="69">
         <f>AI116/AI117-1</f>
-        <v>-0.37751882704689876</v>
+        <v>-0.3596160926858174</v>
       </c>
     </row>
     <row r="119" spans="34:35" ht="20" x14ac:dyDescent="0.2">

--- a/Technology/Software/Cadence Design Systems.xlsx
+++ b/Technology/Software/Cadence Design Systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F53FF1-A03D-4442-922A-536FB07A1E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D2756F-D70D-734F-B416-DFCC6B93EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2817,13 +2817,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2839,14 +2841,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.9530000000000005E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2856,6 +2858,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2983,11 +2987,9 @@
     <v>Powered by Refinitiv</v>
     <v>255.85</v>
     <v>138.76</v>
-    <v>1.0442</v>
-    <v>-6.42</v>
-    <v>-2.6198000000000003E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.0482</v>
+    <v>-0.59</v>
+    <v>-2.5540000000000003E-3</v>
     <v>USD</v>
     <v>Cadence Design Systems, Inc. is an electronic system designing company. The Company's Custom IC Design and Simulation offerings are used by its customers to create schematic and physical representations of circuits down to the transistor level for analog, mixed-signal, custom digital, memory and radio frequency (RF) designs. Its Digital IC Design and Signoff solutions are used to create logical representations of a digital circuit or an integrated circuit (IC) that can be verified for correctness prior to implementation. The Company’s Functional Verification products are used by its customers to verify that the circuitry or the software they have designed is consistent with the functional specification. Its IP offerings consist of pre-verified, customizable functional blocks. Its System Design and Analysis offerings are used by its customers to develop printed circuit boards (PCBs) and advanced IC packages and to analyze electromagnetic, electro-thermal and other multi-physics effects.</v>
     <v>10200</v>
@@ -2995,25 +2997,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2655 Seely Avenue Bldg 5, SAN JOSE, CA, 95134 US</v>
-    <v>245.13</v>
+    <v>235.16</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45219.999622128904</v>
+    <v>45225.991601562499</v>
     <v>0</v>
-    <v>238.03</v>
-    <v>65073309760</v>
+    <v>228.66</v>
+    <v>62693967280</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
-    <v>245.13</v>
-    <v>75.325199999999995</v>
-    <v>245.06</v>
-    <v>238.64</v>
-    <v>238.64</v>
-    <v>272684000</v>
+    <v>231.17</v>
+    <v>65.665499999999994</v>
+    <v>231.03</v>
+    <v>230.44</v>
+    <v>272062000</v>
     <v>CDNS</v>
     <v>CADENCE DESIGN SYSTEMS, INC. (XNAS:CDNS)</v>
-    <v>1361517</v>
-    <v>1161278</v>
+    <v>252</v>
+    <v>1241155</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3045,8 +3046,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3067,7 +3066,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3084,7 +3082,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3095,16 +3093,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3170,19 +3165,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3227,9 +3216,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3237,9 +3223,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3604,7 +3587,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AD92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI99" sqref="AI99"/>
+      <selection pane="bottomRight" activeCell="AI126" sqref="AI126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5515,15 +5498,15 @@
       </c>
       <c r="AN16" s="34">
         <f>AO102/AG3</f>
-        <v>18.270202683087206</v>
+        <v>17.602170435727928</v>
       </c>
       <c r="AO16" s="34">
         <f>AO102/AG28</f>
-        <v>76.65134160706377</v>
+        <v>73.84865961797604</v>
       </c>
       <c r="AP16" s="35">
         <f>AO102/AG107</f>
-        <v>58.169778604943865</v>
+        <v>56.042857048357931</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5861,15 +5844,15 @@
       </c>
       <c r="AN19" s="34">
         <f>AO102/AH3</f>
-        <v>15.984600776222058</v>
+        <v>15.400139346597888</v>
       </c>
       <c r="AO19" s="34">
         <f>AO102/AH28</f>
-        <v>46.916589589041095</v>
+        <v>45.201129978370581</v>
       </c>
       <c r="AP19" s="35">
         <f>AO102/AH107</f>
-        <v>40.978154760705287</v>
+        <v>39.479828261964734</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6262,7 +6245,7 @@
       </c>
       <c r="AP22" s="37">
         <f>AH107/AO102</f>
-        <v>2.4403246213490278E-2</v>
+        <v>2.5329390831302326E-2</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13902,7 +13885,7 @@
       </c>
       <c r="AO95" s="72">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.9530000000000005E-2</v>
       </c>
     </row>
     <row r="96" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14010,7 +13993,7 @@
       </c>
       <c r="AO96" s="55" cm="1">
         <f t="array" ref="AO96">_FV(A1,"Beta")</f>
-        <v>1.0442</v>
+        <v>1.0482</v>
       </c>
     </row>
     <row r="97" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14225,7 +14208,7 @@
       </c>
       <c r="AO98" s="53">
         <f>(AO95)+((AO96)*(AO97-AO95))</f>
-        <v>8.5508104000000001E-2</v>
+        <v>8.5661453999999998E-2</v>
       </c>
     </row>
     <row r="99" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -14546,7 +14529,7 @@
       </c>
       <c r="AO101" s="53">
         <f>AO100/AO104</f>
-        <v>1.1365272375108003E-2</v>
+        <v>1.1791517702469632E-2</v>
       </c>
     </row>
     <row r="102" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14654,7 +14637,7 @@
       </c>
       <c r="AO102" s="57" cm="1">
         <f t="array" ref="AO102">_FV(A1,"Market cap",TRUE)</f>
-        <v>65073309760</v>
+        <v>62693967280</v>
       </c>
     </row>
     <row r="103" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14762,7 +14745,7 @@
       </c>
       <c r="AO103" s="53">
         <f>AO102/AO104</f>
-        <v>0.98863472762489202</v>
+        <v>0.98820848229753033</v>
       </c>
     </row>
     <row r="104" spans="1:41" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14878,7 +14861,7 @@
       </c>
       <c r="AO104" s="58">
         <f>AO100+AO102</f>
-        <v>65821387760</v>
+        <v>63442045280</v>
       </c>
     </row>
     <row r="105" spans="1:41" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15202,7 +15185,7 @@
       </c>
       <c r="AO106" s="60">
         <f>(AO101*AO93)+(AO103*AO98)</f>
-        <v>8.481924354330668E-2</v>
+        <v>8.4944950161051858E-2</v>
       </c>
     </row>
     <row r="107" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -15338,7 +15321,7 @@
       <c r="AK108" s="75"/>
       <c r="AL108" s="47">
         <f>AL107*(1+AO108)/(AO109-AO108)</f>
-        <v>46984044490.052376</v>
+        <v>46885517336.306061</v>
       </c>
       <c r="AM108" s="48" t="s">
         <v>145</v>
@@ -15369,7 +15352,7 @@
       </c>
       <c r="AL109" s="47">
         <f>AL108+AL107</f>
-        <v>49726044490.052376</v>
+        <v>49627517336.306061</v>
       </c>
       <c r="AM109" s="48" t="s">
         <v>142</v>
@@ -15379,7 +15362,7 @@
       </c>
       <c r="AO109" s="61">
         <f>AO106</f>
-        <v>8.481924354330668E-2</v>
+        <v>8.4944950161051858E-2</v>
       </c>
     </row>
     <row r="110" spans="1:41" ht="19" x14ac:dyDescent="0.2">
@@ -15394,7 +15377,7 @@
       </c>
       <c r="AI111" s="65">
         <f>NPV(AO109,AH109,AI109,AJ109,AK109,AL109)</f>
-        <v>39518556917.162735</v>
+        <v>39431923530.812157</v>
       </c>
     </row>
     <row r="112" spans="1:41" ht="20" x14ac:dyDescent="0.2">
@@ -15421,7 +15404,7 @@
       </c>
       <c r="AI114" s="65">
         <f>AI111+AI112-AI113</f>
-        <v>39652803917.162735</v>
+        <v>39566170530.812157</v>
       </c>
     </row>
     <row r="115" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15439,7 +15422,7 @@
       </c>
       <c r="AI116" s="67">
         <f>AI114/AI115</f>
-        <v>152.82121564145652</v>
+        <v>152.48733207940401</v>
       </c>
     </row>
     <row r="117" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15448,7 +15431,7 @@
       </c>
       <c r="AI117" s="68" cm="1">
         <f t="array" ref="AI117">_FV(A1,"Price")</f>
-        <v>238.64</v>
+        <v>230.44</v>
       </c>
     </row>
     <row r="118" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15457,7 +15440,7 @@
       </c>
       <c r="AI118" s="69">
         <f>AI116/AI117-1</f>
-        <v>-0.3596160926858174</v>
+        <v>-0.33827750356099628</v>
       </c>
     </row>
     <row r="119" spans="34:35" ht="20" x14ac:dyDescent="0.2">

--- a/Technology/Software/Cadence Design Systems.xlsx
+++ b/Technology/Software/Cadence Design Systems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D2756F-D70D-734F-B416-DFCC6B93EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3764FA-2DEC-D541-98ED-389D135F0E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2822,13 +2822,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2845,7 +2842,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9530000000000005E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2857,9 +2854,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2985,11 +2979,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>255.85</v>
-    <v>138.76</v>
-    <v>1.0482</v>
-    <v>-0.59</v>
-    <v>-2.5540000000000003E-3</v>
+    <v>259.49</v>
+    <v>145.94</v>
+    <v>1.0429999999999999</v>
+    <v>0.05</v>
+    <v>1.95E-4</v>
+    <v>0.2</v>
+    <v>7.7990000000000004E-4</v>
     <v>USD</v>
     <v>Cadence Design Systems, Inc. is an electronic system designing company. The Company's Custom IC Design and Simulation offerings are used by its customers to create schematic and physical representations of circuits down to the transistor level for analog, mixed-signal, custom digital, memory and radio frequency (RF) designs. Its Digital IC Design and Signoff solutions are used to create logical representations of a digital circuit or an integrated circuit (IC) that can be verified for correctness prior to implementation. The Company’s Functional Verification products are used by its customers to verify that the circuitry or the software they have designed is consistent with the functional specification. Its IP offerings consist of pre-verified, customizable functional blocks. Its System Design and Analysis offerings are used by its customers to develop printed circuit boards (PCBs) and advanced IC packages and to analyze electromagnetic, electro-thermal and other multi-physics effects.</v>
     <v>10200</v>
@@ -2997,24 +2993,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2655 Seely Avenue Bldg 5, SAN JOSE, CA, 95134 US</v>
-    <v>235.16</v>
+    <v>259.49</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45225.991601562499</v>
+    <v>45239.950826897657</v>
     <v>0</v>
-    <v>228.66</v>
-    <v>62693967280</v>
+    <v>255.13</v>
+    <v>69770299900</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
-    <v>231.17</v>
-    <v>65.665499999999994</v>
-    <v>231.03</v>
-    <v>230.44</v>
+    <v>256.95</v>
+    <v>73.063000000000002</v>
+    <v>256.39999999999998</v>
+    <v>256.45</v>
+    <v>256.64999999999998</v>
     <v>272062000</v>
     <v>CDNS</v>
     <v>CADENCE DESIGN SYSTEMS, INC. (XNAS:CDNS)</v>
-    <v>252</v>
-    <v>1241155</v>
+    <v>1149405</v>
+    <v>1416204</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3046,6 +3043,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3066,6 +3065,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3082,7 +3082,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3093,13 +3093,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3165,13 +3168,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3216,6 +3225,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3223,6 +3235,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3584,10 +3599,10 @@
   <dimension ref="A1:AP119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI126" sqref="AI126"/>
+      <selection pane="bottomRight" activeCell="AF115" sqref="AF115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5498,15 +5513,15 @@
       </c>
       <c r="AN16" s="34">
         <f>AO102/AG3</f>
-        <v>17.602170435727928</v>
+        <v>19.588945531341896</v>
       </c>
       <c r="AO16" s="34">
         <f>AO102/AG28</f>
-        <v>73.84865961797604</v>
+        <v>82.184033844080702</v>
       </c>
       <c r="AP16" s="35">
         <f>AO102/AG107</f>
-        <v>56.042857048357931</v>
+        <v>62.368472010290709</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5844,15 +5859,15 @@
       </c>
       <c r="AN19" s="34">
         <f>AO102/AH3</f>
-        <v>15.400139346597888</v>
+        <v>17.138368926553671</v>
       </c>
       <c r="AO19" s="34">
         <f>AO102/AH28</f>
-        <v>45.201129978370581</v>
+        <v>50.303028046142757</v>
       </c>
       <c r="AP19" s="35">
         <f>AO102/AH107</f>
-        <v>39.479828261964734</v>
+        <v>43.935957115869016</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6245,7 +6260,7 @@
       </c>
       <c r="AP22" s="37">
         <f>AH107/AO102</f>
-        <v>2.5329390831302326E-2</v>
+        <v>2.2760400948197729E-2</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13885,7 +13900,7 @@
       </c>
       <c r="AO95" s="72">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9530000000000005E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -13993,7 +14008,7 @@
       </c>
       <c r="AO96" s="55" cm="1">
         <f t="array" ref="AO96">_FV(A1,"Beta")</f>
-        <v>1.0482</v>
+        <v>1.0429999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14208,7 +14223,7 @@
       </c>
       <c r="AO98" s="53">
         <f>(AO95)+((AO96)*(AO97-AO95))</f>
-        <v>8.5661453999999998E-2</v>
+        <v>8.5646470000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -14529,7 +14544,7 @@
       </c>
       <c r="AO101" s="53">
         <f>AO100/AO104</f>
-        <v>1.1791517702469632E-2</v>
+        <v>1.0608270103161292E-2</v>
       </c>
     </row>
     <row r="102" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14637,7 +14652,7 @@
       </c>
       <c r="AO102" s="57" cm="1">
         <f t="array" ref="AO102">_FV(A1,"Market cap",TRUE)</f>
-        <v>62693967280</v>
+        <v>69770299900</v>
       </c>
     </row>
     <row r="103" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14745,7 +14760,7 @@
       </c>
       <c r="AO103" s="53">
         <f>AO102/AO104</f>
-        <v>0.98820848229753033</v>
+        <v>0.98939172989683866</v>
       </c>
     </row>
     <row r="104" spans="1:41" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14861,7 +14876,7 @@
       </c>
       <c r="AO104" s="58">
         <f>AO100+AO102</f>
-        <v>63442045280</v>
+        <v>70518377900</v>
       </c>
     </row>
     <row r="105" spans="1:41" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15185,7 +15200,7 @@
       </c>
       <c r="AO106" s="60">
         <f>(AO101*AO93)+(AO103*AO98)</f>
-        <v>8.4944950161051858E-2</v>
+        <v>8.5002024379632279E-2</v>
       </c>
     </row>
     <row r="107" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -15321,7 +15336,7 @@
       <c r="AK108" s="75"/>
       <c r="AL108" s="47">
         <f>AL107*(1+AO108)/(AO109-AO108)</f>
-        <v>46885517336.306061</v>
+        <v>46840919603.273293</v>
       </c>
       <c r="AM108" s="48" t="s">
         <v>145</v>
@@ -15352,7 +15367,7 @@
       </c>
       <c r="AL109" s="47">
         <f>AL108+AL107</f>
-        <v>49627517336.306061</v>
+        <v>49582919603.273293</v>
       </c>
       <c r="AM109" s="48" t="s">
         <v>142</v>
@@ -15362,7 +15377,7 @@
       </c>
       <c r="AO109" s="61">
         <f>AO106</f>
-        <v>8.4944950161051858E-2</v>
+        <v>8.5002024379632279E-2</v>
       </c>
     </row>
     <row r="110" spans="1:41" ht="19" x14ac:dyDescent="0.2">
@@ -15377,7 +15392,7 @@
       </c>
       <c r="AI111" s="65">
         <f>NPV(AO109,AH109,AI109,AJ109,AK109,AL109)</f>
-        <v>39431923530.812157</v>
+        <v>39392710005.389778</v>
       </c>
     </row>
     <row r="112" spans="1:41" ht="20" x14ac:dyDescent="0.2">
@@ -15404,7 +15419,7 @@
       </c>
       <c r="AI114" s="65">
         <f>AI111+AI112-AI113</f>
-        <v>39566170530.812157</v>
+        <v>39526957005.389778</v>
       </c>
     </row>
     <row r="115" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15422,7 +15437,7 @@
       </c>
       <c r="AI116" s="67">
         <f>AI114/AI115</f>
-        <v>152.48733207940401</v>
+        <v>152.3362038354303</v>
       </c>
     </row>
     <row r="117" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15431,7 +15446,7 @@
       </c>
       <c r="AI117" s="68" cm="1">
         <f t="array" ref="AI117">_FV(A1,"Price")</f>
-        <v>230.44</v>
+        <v>256.45</v>
       </c>
     </row>
     <row r="118" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15440,7 +15455,7 @@
       </c>
       <c r="AI118" s="69">
         <f>AI116/AI117-1</f>
-        <v>-0.33827750356099628</v>
+        <v>-0.40598087800573091</v>
       </c>
     </row>
     <row r="119" spans="34:35" ht="20" x14ac:dyDescent="0.2">

--- a/Technology/Software/Cadence Design Systems.xlsx
+++ b/Technology/Software/Cadence Design Systems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3764FA-2DEC-D541-98ED-389D135F0E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCCEEEF-9587-9B44-AD70-1EEAF4A22495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2824,6 +2824,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
@@ -2842,7 +2843,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2854,6 +2855,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2979,13 +2981,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>259.49</v>
-    <v>145.94</v>
-    <v>1.0429999999999999</v>
-    <v>0.05</v>
-    <v>1.95E-4</v>
-    <v>0.2</v>
-    <v>7.7990000000000004E-4</v>
+    <v>279.32499999999999</v>
+    <v>154.88</v>
+    <v>1.0535000000000001</v>
+    <v>-2.92</v>
+    <v>-1.0685E-2</v>
+    <v>0.21</v>
+    <v>7.7680000000000002E-4</v>
     <v>USD</v>
     <v>Cadence Design Systems, Inc. is an electronic system designing company. The Company's Custom IC Design and Simulation offerings are used by its customers to create schematic and physical representations of circuits down to the transistor level for analog, mixed-signal, custom digital, memory and radio frequency (RF) designs. Its Digital IC Design and Signoff solutions are used to create logical representations of a digital circuit or an integrated circuit (IC) that can be verified for correctness prior to implementation. The Company’s Functional Verification products are used by its customers to verify that the circuitry or the software they have designed is consistent with the functional specification. Its IP offerings consist of pre-verified, customizable functional blocks. Its System Design and Analysis offerings are used by its customers to develop printed circuit boards (PCBs) and advanced IC packages and to analyze electromagnetic, electro-thermal and other multi-physics effects.</v>
     <v>10200</v>
@@ -2993,25 +2995,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2655 Seely Avenue Bldg 5, SAN JOSE, CA, 95134 US</v>
-    <v>259.49</v>
+    <v>273.39499999999998</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.950826897657</v>
+    <v>45262.036305983595</v>
     <v>0</v>
-    <v>255.13</v>
-    <v>69770299900</v>
+    <v>268.3827</v>
+    <v>73551961700</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
-    <v>256.95</v>
-    <v>73.063000000000002</v>
-    <v>256.39999999999998</v>
-    <v>256.45</v>
-    <v>256.64999999999998</v>
+    <v>272.85000000000002</v>
+    <v>77.870199999999997</v>
+    <v>273.27</v>
+    <v>270.35000000000002</v>
+    <v>270.56</v>
     <v>272062000</v>
     <v>CDNS</v>
     <v>CADENCE DESIGN SYSTEMS, INC. (XNAS:CDNS)</v>
-    <v>1149405</v>
-    <v>1416204</v>
+    <v>1679173</v>
+    <v>1343804</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3176,9 +3178,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -5513,15 +5515,15 @@
       </c>
       <c r="AN16" s="34">
         <f>AO102/AG3</f>
-        <v>19.588945531341896</v>
+        <v>20.650697697010262</v>
       </c>
       <c r="AO16" s="34">
         <f>AO102/AG28</f>
-        <v>82.184033844080702</v>
+        <v>86.638539870334242</v>
       </c>
       <c r="AP16" s="35">
         <f>AO102/AG107</f>
-        <v>62.368472010290709</v>
+        <v>65.748942904979884</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5859,15 +5861,15 @@
       </c>
       <c r="AN19" s="34">
         <f>AO102/AH3</f>
-        <v>17.138368926553671</v>
+        <v>18.067295922377795</v>
       </c>
       <c r="AO19" s="34">
         <f>AO102/AH28</f>
-        <v>50.303028046142757</v>
+        <v>53.029532588320116</v>
       </c>
       <c r="AP19" s="35">
         <f>AO102/AH107</f>
-        <v>43.935957115869016</v>
+        <v>46.317356234256927</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6260,7 +6262,7 @@
       </c>
       <c r="AP22" s="37">
         <f>AH107/AO102</f>
-        <v>2.2760400948197729E-2</v>
+        <v>2.1590178742982458E-2</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13900,7 +13902,7 @@
       </c>
       <c r="AO95" s="72">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14008,7 +14010,7 @@
       </c>
       <c r="AO96" s="55" cm="1">
         <f t="array" ref="AO96">_FV(A1,"Beta")</f>
-        <v>1.0429999999999999</v>
+        <v>1.0535000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14223,7 +14225,7 @@
       </c>
       <c r="AO98" s="53">
         <f>(AO95)+((AO96)*(AO97-AO95))</f>
-        <v>8.5646470000000002E-2</v>
+        <v>8.6209015E-2</v>
       </c>
     </row>
     <row r="99" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -14544,7 +14546,7 @@
       </c>
       <c r="AO101" s="53">
         <f>AO100/AO104</f>
-        <v>1.0608270103161292E-2</v>
+        <v>1.006833916940693E-2</v>
       </c>
     </row>
     <row r="102" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14652,7 +14654,7 @@
       </c>
       <c r="AO102" s="57" cm="1">
         <f t="array" ref="AO102">_FV(A1,"Market cap",TRUE)</f>
-        <v>69770299900</v>
+        <v>73551961700</v>
       </c>
     </row>
     <row r="103" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14760,7 +14762,7 @@
       </c>
       <c r="AO103" s="53">
         <f>AO102/AO104</f>
-        <v>0.98939172989683866</v>
+        <v>0.98993166083059303</v>
       </c>
     </row>
     <row r="104" spans="1:41" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14876,7 +14878,7 @@
       </c>
       <c r="AO104" s="58">
         <f>AO100+AO102</f>
-        <v>70518377900</v>
+        <v>74300039700</v>
       </c>
     </row>
     <row r="105" spans="1:41" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15200,7 +15202,7 @@
       </c>
       <c r="AO106" s="60">
         <f>(AO101*AO93)+(AO103*AO98)</f>
-        <v>8.5002024379632279E-2</v>
+        <v>8.5591705944489477E-2</v>
       </c>
     </row>
     <row r="107" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -15336,7 +15338,7 @@
       <c r="AK108" s="75"/>
       <c r="AL108" s="47">
         <f>AL107*(1+AO108)/(AO109-AO108)</f>
-        <v>46840919603.273293</v>
+        <v>46385061390.660606</v>
       </c>
       <c r="AM108" s="48" t="s">
         <v>145</v>
@@ -15367,7 +15369,7 @@
       </c>
       <c r="AL109" s="47">
         <f>AL108+AL107</f>
-        <v>49582919603.273293</v>
+        <v>49127061390.660606</v>
       </c>
       <c r="AM109" s="48" t="s">
         <v>142</v>
@@ -15377,7 +15379,7 @@
       </c>
       <c r="AO109" s="61">
         <f>AO106</f>
-        <v>8.5002024379632279E-2</v>
+        <v>8.5591705944489477E-2</v>
       </c>
     </row>
     <row r="110" spans="1:41" ht="19" x14ac:dyDescent="0.2">
@@ -15392,7 +15394,7 @@
       </c>
       <c r="AI111" s="65">
         <f>NPV(AO109,AH109,AI109,AJ109,AK109,AL109)</f>
-        <v>39392710005.389778</v>
+        <v>38991907171.023048</v>
       </c>
     </row>
     <row r="112" spans="1:41" ht="20" x14ac:dyDescent="0.2">
@@ -15419,7 +15421,7 @@
       </c>
       <c r="AI114" s="65">
         <f>AI111+AI112-AI113</f>
-        <v>39526957005.389778</v>
+        <v>39126154171.023048</v>
       </c>
     </row>
     <row r="115" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15437,7 +15439,7 @@
       </c>
       <c r="AI116" s="67">
         <f>AI114/AI115</f>
-        <v>152.3362038354303</v>
+        <v>150.79151669279034</v>
       </c>
     </row>
     <row r="117" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15446,7 +15448,7 @@
       </c>
       <c r="AI117" s="68" cm="1">
         <f t="array" ref="AI117">_FV(A1,"Price")</f>
-        <v>256.45</v>
+        <v>270.35000000000002</v>
       </c>
     </row>
     <row r="118" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15455,7 +15457,7 @@
       </c>
       <c r="AI118" s="69">
         <f>AI116/AI117-1</f>
-        <v>-0.40598087800573091</v>
+        <v>-0.44223592863772765</v>
       </c>
     </row>
     <row r="119" spans="34:35" ht="20" x14ac:dyDescent="0.2">

--- a/Technology/Software/Cadence Design Systems.xlsx
+++ b/Technology/Software/Cadence Design Systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCCEEEF-9587-9B44-AD70-1EEAF4A22495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E945931-25F1-1D4E-80D5-393B89B73BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2824,8 +2824,10 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
-      <sheetName val="Small Caps"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -2843,7 +2845,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2856,6 +2858,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2983,11 +2987,11 @@
     <v>Powered by Refinitiv</v>
     <v>279.32499999999999</v>
     <v>154.88</v>
-    <v>1.0535000000000001</v>
-    <v>-2.92</v>
-    <v>-1.0685E-2</v>
-    <v>0.21</v>
-    <v>7.7680000000000002E-4</v>
+    <v>1.0808</v>
+    <v>0.46</v>
+    <v>1.7730000000000001E-3</v>
+    <v>0.23</v>
+    <v>8.8489999999999999E-4</v>
     <v>USD</v>
     <v>Cadence Design Systems, Inc. is an electronic system designing company. The Company's Custom IC Design and Simulation offerings are used by its customers to create schematic and physical representations of circuits down to the transistor level for analog, mixed-signal, custom digital, memory and radio frequency (RF) designs. Its Digital IC Design and Signoff solutions are used to create logical representations of a digital circuit or an integrated circuit (IC) that can be verified for correctness prior to implementation. The Company’s Functional Verification products are used by its customers to verify that the circuitry or the software they have designed is consistent with the functional specification. Its IP offerings consist of pre-verified, customizable functional blocks. Its System Design and Analysis offerings are used by its customers to develop printed circuit boards (PCBs) and advanced IC packages and to analyze electromagnetic, electro-thermal and other multi-physics effects.</v>
     <v>10200</v>
@@ -2995,25 +2999,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2655 Seely Avenue Bldg 5, SAN JOSE, CA, 95134 US</v>
-    <v>273.39499999999998</v>
+    <v>261.58</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.036305983595</v>
+    <v>45269.038453425783</v>
     <v>0</v>
-    <v>268.3827</v>
-    <v>73551961700</v>
+    <v>257.56</v>
+    <v>70717075660</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
-    <v>272.85000000000002</v>
-    <v>77.870199999999997</v>
-    <v>273.27</v>
-    <v>270.35000000000002</v>
-    <v>270.56</v>
+    <v>257.56</v>
+    <v>73.937799999999996</v>
+    <v>259.47000000000003</v>
+    <v>259.93</v>
+    <v>260.16000000000003</v>
     <v>272062000</v>
     <v>CDNS</v>
     <v>CADENCE DESIGN SYSTEMS, INC. (XNAS:CDNS)</v>
-    <v>1679173</v>
-    <v>1343804</v>
+    <v>1049287</v>
+    <v>1384511</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3178,9 +3182,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3601,10 +3605,10 @@
   <dimension ref="A1:AP119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF115" sqref="AF115"/>
+      <selection pane="bottomRight" activeCell="AJ94" sqref="AJ94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5515,15 +5519,15 @@
       </c>
       <c r="AN16" s="34">
         <f>AO102/AG3</f>
-        <v>20.650697697010262</v>
+        <v>19.854765497998439</v>
       </c>
       <c r="AO16" s="34">
         <f>AO102/AG28</f>
-        <v>86.638539870334242</v>
+        <v>83.299262690941305</v>
       </c>
       <c r="AP16" s="35">
         <f>AO102/AG107</f>
-        <v>65.748942904979884</v>
+        <v>63.214805730687715</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5861,15 +5865,15 @@
       </c>
       <c r="AN19" s="34">
         <f>AO102/AH3</f>
-        <v>18.067295922377795</v>
+        <v>17.370934821911078</v>
       </c>
       <c r="AO19" s="34">
         <f>AO102/AH28</f>
-        <v>53.029532588320116</v>
+        <v>50.985634938716657</v>
       </c>
       <c r="AP19" s="35">
         <f>AO102/AH107</f>
-        <v>46.317356234256927</v>
+        <v>44.532163513853902</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6262,7 +6266,7 @@
       </c>
       <c r="AP22" s="37">
         <f>AH107/AO102</f>
-        <v>2.1590178742982458E-2</v>
+        <v>2.2455679695169116E-2</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13902,7 +13906,7 @@
       </c>
       <c r="AO95" s="72">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
     </row>
     <row r="96" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14010,7 +14014,7 @@
       </c>
       <c r="AO96" s="55" cm="1">
         <f t="array" ref="AO96">_FV(A1,"Beta")</f>
-        <v>1.0535000000000001</v>
+        <v>1.0808</v>
       </c>
     </row>
     <row r="97" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14225,7 +14229,7 @@
       </c>
       <c r="AO98" s="53">
         <f>(AO95)+((AO96)*(AO97-AO95))</f>
-        <v>8.6209015E-2</v>
+        <v>8.7457432000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -14546,7 +14550,7 @@
       </c>
       <c r="AO101" s="53">
         <f>AO100/AO104</f>
-        <v>1.006833916940693E-2</v>
+        <v>1.04677309386198E-2</v>
       </c>
     </row>
     <row r="102" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14654,7 +14658,7 @@
       </c>
       <c r="AO102" s="57" cm="1">
         <f t="array" ref="AO102">_FV(A1,"Market cap",TRUE)</f>
-        <v>73551961700</v>
+        <v>70717075660</v>
       </c>
     </row>
     <row r="103" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14762,7 +14766,7 @@
       </c>
       <c r="AO103" s="53">
         <f>AO102/AO104</f>
-        <v>0.98993166083059303</v>
+        <v>0.98953226906138025</v>
       </c>
     </row>
     <row r="104" spans="1:41" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14878,7 +14882,7 @@
       </c>
       <c r="AO104" s="58">
         <f>AO100+AO102</f>
-        <v>74300039700</v>
+        <v>71465153660</v>
       </c>
     </row>
     <row r="105" spans="1:41" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15202,7 +15206,7 @@
       </c>
       <c r="AO106" s="60">
         <f>(AO101*AO93)+(AO103*AO98)</f>
-        <v>8.5591705944489477E-2</v>
+        <v>8.6802567380988904E-2</v>
       </c>
     </row>
     <row r="107" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -15338,7 +15342,7 @@
       <c r="AK108" s="75"/>
       <c r="AL108" s="47">
         <f>AL107*(1+AO108)/(AO109-AO108)</f>
-        <v>46385061390.660606</v>
+        <v>45476266101.924973</v>
       </c>
       <c r="AM108" s="48" t="s">
         <v>145</v>
@@ -15369,7 +15373,7 @@
       </c>
       <c r="AL109" s="47">
         <f>AL108+AL107</f>
-        <v>49127061390.660606</v>
+        <v>48218266101.924973</v>
       </c>
       <c r="AM109" s="48" t="s">
         <v>142</v>
@@ -15379,7 +15383,7 @@
       </c>
       <c r="AO109" s="61">
         <f>AO106</f>
-        <v>8.5591705944489477E-2</v>
+        <v>8.6802567380988904E-2</v>
       </c>
     </row>
     <row r="110" spans="1:41" ht="19" x14ac:dyDescent="0.2">
@@ -15394,7 +15398,7 @@
       </c>
       <c r="AI111" s="65">
         <f>NPV(AO109,AH109,AI109,AJ109,AK109,AL109)</f>
-        <v>38991907171.023048</v>
+        <v>38192983845.069954</v>
       </c>
     </row>
     <row r="112" spans="1:41" ht="20" x14ac:dyDescent="0.2">
@@ -15421,7 +15425,7 @@
       </c>
       <c r="AI114" s="65">
         <f>AI111+AI112-AI113</f>
-        <v>39126154171.023048</v>
+        <v>38327230845.069954</v>
       </c>
     </row>
     <row r="115" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15439,7 +15443,7 @@
       </c>
       <c r="AI116" s="67">
         <f>AI114/AI115</f>
-        <v>150.79151669279034</v>
+        <v>147.71248010986605</v>
       </c>
     </row>
     <row r="117" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15448,7 +15452,7 @@
       </c>
       <c r="AI117" s="68" cm="1">
         <f t="array" ref="AI117">_FV(A1,"Price")</f>
-        <v>270.35000000000002</v>
+        <v>259.93</v>
       </c>
     </row>
     <row r="118" spans="34:35" ht="20" x14ac:dyDescent="0.2">
@@ -15457,7 +15461,7 @@
       </c>
       <c r="AI118" s="69">
         <f>AI116/AI117-1</f>
-        <v>-0.44223592863772765</v>
+        <v>-0.43172207859859946</v>
       </c>
     </row>
     <row r="119" spans="34:35" ht="20" x14ac:dyDescent="0.2">
